--- a/lvm_contractThoery_allocation/difficulty.xlsx
+++ b/lvm_contractThoery_allocation/difficulty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\pythonProject\lvm_contractThoery_allocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\pythonProject\Vision-Language-Model-Empowered-Contract-Theory-for-AIGC-Task-Allocation-in-Teleoperation\lvm_contractThoery_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933056B1-877F-476C-B149-4C3BF2721CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77205C5B-F628-4900-961B-AFE554937273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,130 +36,8 @@
     <t>Results_from_Large</t>
   </si>
   <si>
-    <t>Bulldozer_184</t>
-  </si>
-  <si>
-    <t>Bulldozer_192</t>
-  </si>
-  <si>
-    <t>Bulldozer_198</t>
-  </si>
-  <si>
-    <t>Bulldozer_208</t>
-  </si>
-  <si>
-    <t>Bulldozer_241</t>
-  </si>
-  <si>
-    <t>Bulldozer_253</t>
-  </si>
-  <si>
-    <t>Bulldozer_42</t>
-  </si>
-  <si>
-    <t>Bulldozer_43</t>
-  </si>
-  <si>
-    <t>Bulldozer_513</t>
-  </si>
-  <si>
-    <t>Crane_368</t>
-  </si>
-  <si>
-    <t>Crane_384</t>
-  </si>
-  <si>
-    <t>Crane_390</t>
-  </si>
-  <si>
-    <t>Crane_392</t>
-  </si>
-  <si>
-    <t>Crane_395</t>
-  </si>
-  <si>
-    <t>Crane_400</t>
-  </si>
-  <si>
-    <t>Crane_402</t>
-  </si>
-  <si>
-    <t>Crane_428</t>
-  </si>
-  <si>
-    <t>Crane_443</t>
-  </si>
-  <si>
-    <t>Crane_444</t>
-  </si>
-  <si>
-    <t>Excavator_08</t>
-  </si>
-  <si>
-    <t>Excavator_114</t>
-  </si>
-  <si>
-    <t>Excavator_123</t>
-  </si>
-  <si>
-    <t>Excavator_129</t>
-  </si>
-  <si>
-    <t>Excavator_158</t>
-  </si>
-  <si>
-    <t>Excavator_169</t>
-  </si>
-  <si>
-    <t>Excavator_18</t>
-  </si>
-  <si>
-    <t>Excavator_23</t>
-  </si>
-  <si>
-    <t>Excavator_35</t>
-  </si>
-  <si>
-    <t>Excavator_460</t>
-  </si>
-  <si>
-    <t>Excavator_466</t>
-  </si>
-  <si>
-    <t>Excavator_469</t>
-  </si>
-  <si>
-    <t>Excavator_482</t>
-  </si>
-  <si>
-    <t>Excavator_500</t>
-  </si>
-  <si>
-    <t>Truck_262</t>
-  </si>
-  <si>
-    <t>Truck_282</t>
-  </si>
-  <si>
-    <t>Truck_291</t>
-  </si>
-  <si>
-    <t>Truck_311</t>
-  </si>
-  <si>
-    <t>Truck_324</t>
-  </si>
-  <si>
-    <t>Truck_342</t>
-  </si>
-  <si>
-    <t>Truck_526</t>
-  </si>
-  <si>
-    <t>Truck_84</t>
-  </si>
-  <si>
-    <t>Truck_86</t>
+    <t>VLM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Human_Perception</t>
@@ -170,15 +48,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VLM</t>
+    <t>Bulldozer_184</t>
+  </si>
+  <si>
+    <t>Bulldozer_192</t>
+  </si>
+  <si>
+    <t>Bulldozer_198</t>
+  </si>
+  <si>
+    <t>Bulldozer_208</t>
+  </si>
+  <si>
+    <t>Bulldozer_241</t>
+  </si>
+  <si>
+    <t>Bulldozer_253</t>
+  </si>
+  <si>
+    <t>Bulldozer_42</t>
+  </si>
+  <si>
+    <t>Bulldozer_43</t>
+  </si>
+  <si>
+    <t>Bulldozer_513</t>
+  </si>
+  <si>
+    <t>Crane_368</t>
+  </si>
+  <si>
+    <t>Crane_384</t>
+  </si>
+  <si>
+    <t>Crane_390</t>
+  </si>
+  <si>
+    <t>Crane_392</t>
+  </si>
+  <si>
+    <t>Crane_395</t>
+  </si>
+  <si>
+    <t>Crane_400</t>
+  </si>
+  <si>
+    <t>Crane_402</t>
+  </si>
+  <si>
+    <t>Crane_428</t>
+  </si>
+  <si>
+    <t>Crane_443</t>
+  </si>
+  <si>
+    <t>Crane_444</t>
+  </si>
+  <si>
+    <t>Excavator_08</t>
+  </si>
+  <si>
+    <t>Excavator_114</t>
+  </si>
+  <si>
+    <t>Excavator_123</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excavator_129</t>
+  </si>
+  <si>
+    <t>Excavator_158</t>
+  </si>
+  <si>
+    <t>Excavator_169</t>
+  </si>
+  <si>
+    <t>Excavator_18</t>
+  </si>
+  <si>
+    <t>Excavator_23</t>
+  </si>
+  <si>
+    <t>Excavator_35</t>
+  </si>
+  <si>
+    <t>Excavator_460</t>
+  </si>
+  <si>
+    <t>Excavator_466</t>
+  </si>
+  <si>
+    <t>Excavator_469</t>
+  </si>
+  <si>
+    <t>Excavator_482</t>
+  </si>
+  <si>
+    <t>Excavator_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Truck_262</t>
+  </si>
+  <si>
+    <t>Truck_282</t>
+  </si>
+  <si>
+    <t>Truck_291</t>
+  </si>
+  <si>
+    <t>Truck_311</t>
+  </si>
+  <si>
+    <t>Truck_324</t>
+  </si>
+  <si>
+    <t>Truck_342</t>
+  </si>
+  <si>
+    <t>Truck_526</t>
+  </si>
+  <si>
+    <t>Truck_84</t>
+  </si>
+  <si>
+    <t>Truck_86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +194,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,12 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,23 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,18 +520,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1.4614072440000001</v>
@@ -558,17 +542,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1.5490562919999999</v>
@@ -585,11 +568,10 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1.595504746</v>
@@ -606,11 +588,10 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1.4896293730000001</v>
@@ -627,11 +608,10 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1.6139788479999999</v>
@@ -648,11 +628,10 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1.6298734100000001</v>
@@ -669,11 +648,10 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1.3539685610000001</v>
@@ -690,11 +668,10 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1.4268298150000001</v>
@@ -711,11 +688,10 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1.437077105</v>
@@ -732,11 +708,10 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1.3992590009999999</v>
@@ -753,11 +728,10 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1.4577724489999999</v>
@@ -774,11 +748,10 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1.4465510850000001</v>
@@ -795,11 +768,10 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1.4814936519999999</v>
@@ -816,11 +788,10 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1.518136173</v>
@@ -837,11 +808,10 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>1.4782475530000001</v>
@@ -858,11 +828,10 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1.442873538</v>
@@ -879,11 +848,10 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>1.5523400009999999</v>
@@ -900,11 +868,10 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>1.3417682950000001</v>
@@ -921,11 +888,10 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>1.3882358669999999</v>
@@ -942,11 +908,10 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>1.542412817</v>
@@ -963,11 +928,10 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1.5747122469999999</v>
@@ -984,11 +948,10 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1.623350114</v>
@@ -1005,11 +968,10 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>1.3428693709999999</v>
@@ -1026,11 +988,10 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>1.5724552869999999</v>
@@ -1047,11 +1008,10 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>1.452882826</v>
@@ -1068,11 +1028,10 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>1.5656932589999999</v>
@@ -1089,11 +1048,10 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1.3830689490000001</v>
@@ -1110,11 +1068,10 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>1.403268129</v>
@@ -1131,11 +1088,10 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>1.5396141860000001</v>
@@ -1152,11 +1108,10 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.6">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>1.561868593</v>
@@ -1173,11 +1128,10 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.6">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>1.4333274659999999</v>
@@ -1194,11 +1148,10 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.6">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>1.4473170639999999</v>
@@ -1215,11 +1168,10 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.6">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>1.4762646559999999</v>
@@ -1236,11 +1188,10 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.6">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>1.3922276499999999</v>
@@ -1257,11 +1208,10 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.6">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>1.3820234840000001</v>
@@ -1278,11 +1228,10 @@
       <c r="F36">
         <v>2</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.6">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>1.3735945519999999</v>
@@ -1299,11 +1248,10 @@
       <c r="F37">
         <v>2</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.6">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>1.493997544</v>
@@ -1320,11 +1268,10 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.6">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>1.363680303</v>
@@ -1341,11 +1288,10 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.6">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>1.4316231909999999</v>
@@ -1362,11 +1308,10 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.6">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>1.4257145819999999</v>
@@ -1383,11 +1328,10 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.6">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>1.6350788030000001</v>
@@ -1404,11 +1348,10 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.6">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>1.637926489</v>
@@ -1425,11 +1368,9 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>